--- a/Data/excel/config.xlsx
+++ b/Data/excel/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14860"/>
+    <workbookView windowHeight="14720"/>
   </bookViews>
   <sheets>
     <sheet name="#Navigator" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 3，Vector3类型的x，y，z使用英文逗号隔开“,”，数组类型使用竖杠隔开“｜”
 4，表格顶部和左侧两行两列不用填写任何数据，可用来填写备注等内容，也可以用“#”屏蔽对应数据（只要包含#就能屏蔽）
 5，表格首列是固定的，对应类型和字段名只能时int类型Id
-6，如果时用string类型代替数组和Vector3类型，分隔符可自定义，只要在转换时使用自定义分隔符就行</t>
+6，如果使用string类型代替数组和Vector3类型，分隔符可自定义，只要在转换时使用自定义分隔符就行</t>
   </si>
   <si>
     <t>Admin</t>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:T34"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/Data/excel/config.xlsx
+++ b/Data/excel/config.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowHeight="17655"/>
   </bookViews>
@@ -949,16 +949,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -968,9 +965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -989,9 +983,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1021,6 +1012,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1378,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1393,790 +1387,825 @@
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.05" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1"/>
-    <row r="2" s="13" customFormat="1"/>
+    <row r="1" s="10" customFormat="1"/>
+    <row r="2" s="10" customFormat="1"/>
     <row r="3" s="1" customFormat="1" spans="3:19">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:20">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:20">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="24"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:20">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:20">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="24"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:20">
+      <c r="F5" s="13"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:20">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="24"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:20">
+      <c r="F6" s="13"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:20">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>4</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="24"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:20">
+      <c r="F7" s="13"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:20">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>5</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="24"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:20">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:20">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>6</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="24"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:20">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="24"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:20">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>8</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="24"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:20">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:20">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <v>9</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="24"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:20">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="22"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:20">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>10</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="24"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:20">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:20">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>11</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="24"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="22"/>
     </row>
     <row r="15" spans="3:20">
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>12</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="24"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="22"/>
     </row>
     <row r="16" spans="3:20">
-      <c r="C16" s="18">
+      <c r="C16" s="15">
         <v>13</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="24"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="22"/>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <v>14</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="24"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="22"/>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <v>15</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="24"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="22"/>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="18">
+      <c r="C19" s="15">
         <v>16</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="24"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="22"/>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>17</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="24"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="22"/>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="18">
+      <c r="C21" s="15">
         <v>18</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="24"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="22"/>
     </row>
     <row r="22" spans="3:20">
-      <c r="C22" s="18">
+      <c r="C22" s="15">
         <v>19</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="24"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="22"/>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="18">
+      <c r="C23" s="15">
         <v>20</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="24"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="22"/>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <v>21</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="24"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="22"/>
     </row>
     <row r="25" spans="3:20">
-      <c r="C25" s="18">
+      <c r="C25" s="15">
         <v>22</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="24"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="22"/>
     </row>
     <row r="26" spans="3:20">
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <v>23</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="24"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="22"/>
     </row>
     <row r="27" spans="3:20">
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <v>24</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="24"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="22"/>
     </row>
     <row r="28" spans="3:20">
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <v>25</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="24"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="22"/>
     </row>
     <row r="29" spans="3:20">
-      <c r="C29" s="18">
+      <c r="C29" s="15">
         <v>26</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="24"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="22"/>
     </row>
     <row r="30" spans="3:19">
-      <c r="C30" s="18">
+      <c r="C30" s="15">
         <v>27</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
     </row>
     <row r="31" spans="3:19">
-      <c r="C31" s="18">
+      <c r="C31" s="15">
         <v>28</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="18">
+      <c r="C32" s="15">
         <v>29</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
     </row>
     <row r="33" spans="3:19">
-      <c r="C33" s="18">
+      <c r="C33" s="15">
         <v>30</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
     </row>
     <row r="34" spans="3:19">
-      <c r="C34" s="18">
+      <c r="C34" s="15">
         <v>31</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="18">
+      <c r="C35" s="15">
         <v>32</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
     </row>
     <row r="36" spans="6:18">
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2198,7 +2227,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="C1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -2210,31 +2239,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="5.925" style="3" customWidth="1"/>
-    <col min="2" max="3" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
+    <col min="2" max="3" width="6.08333333333333" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
     <row r="2" s="1" customFormat="1"/>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="12" t="s">
+    <row r="3" s="1" customFormat="1" spans="3:3">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="12" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:3">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" s="1" customFormat="1" spans="3:3">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2248,7 +2271,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="C1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -2260,78 +2283,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.925" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.08333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.3833333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.08333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.08333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.3833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.75" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
     <row r="2" s="1" customFormat="1" spans="3:5">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:5">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:5">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" s="1" customFormat="1" spans="3:5">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2344,7 +2361,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="C1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -2356,164 +2373,158 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.925" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.08333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="14.875" style="9"/>
-    <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="11.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.08333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.08333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="14.875" style="7"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="11.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9" style="3"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="5:6">
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="5:6">
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:13">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:13">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:13">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:13">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:13">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" s="1" customFormat="1" spans="3:13">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>10000</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>10000</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>10001</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2530,7 +2541,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="C1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -2542,89 +2553,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.925" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.08333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="81.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.08333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.08333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="81.25" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
     <row r="2" s="1" customFormat="1" spans="3:5">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:5">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:5">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" s="1" customFormat="1" spans="3:5">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>10000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>10001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>101</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>10002</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>101</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2637,7 +2642,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="C1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -2649,80 +2654,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.925" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.08333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.08333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.08333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
     <row r="2" s="1" customFormat="1" spans="3:5">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:5">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" s="1" customFormat="1" spans="3:5">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" s="1" customFormat="1" spans="3:5">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>101</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>102</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
     </row>

--- a/Data/excel/config.xlsx
+++ b/Data/excel/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="#Navigator" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Playable" sheetId="9" r:id="rId4"/>
     <sheet name="PlayableClip" sheetId="10" r:id="rId5"/>
     <sheet name="PlayableLayer" sheetId="12" r:id="rId6"/>
+    <sheet name="Test" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
   <si>
     <t>表格Id</t>
   </si>
@@ -111,6 +112,9 @@
     <t>动画层级</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -213,7 +217,7 @@
     <t>Eye</t>
   </si>
   <si>
-    <t>10000,10002</t>
+    <t>10000|10002</t>
   </si>
   <si>
     <t>所在层级</t>
@@ -244,6 +248,216 @@
   </si>
   <si>
     <t>LayerAvatarMask</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>字符串数组</t>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>整数数组</t>
+  </si>
+  <si>
+    <t>浮点数</t>
+  </si>
+  <si>
+    <t>浮点数组</t>
+  </si>
+  <si>
+    <t>Vector3数组</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Strs</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>SmallNumber</t>
+  </si>
+  <si>
+    <t>SmallNumbers</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>PosArr</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>Vector3[]</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>1|Q|A|Z</t>
+  </si>
+  <si>
+    <t>123|234|456|567</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.3</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,4</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>2|W|S|X</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.4</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,5</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>3|E|D|C</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.5</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,6</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>4|R|F|V</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.6</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,7</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>5|T|G|B</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.7</t>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,8</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>6|Y|H|N</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.8</t>
+  </si>
+  <si>
+    <t>1,2,8</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,9</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>7|U|J|M</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.9</t>
+  </si>
+  <si>
+    <t>1,2,9</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,10</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>8|I|K|&lt;</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.10</t>
+  </si>
+  <si>
+    <t>1,2,10</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,11</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>9|O|L|&gt;</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.11</t>
+  </si>
+  <si>
+    <t>1,2,11</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,12</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>0|P|:|?</t>
+  </si>
+  <si>
+    <t>0.2|0.1|0.12</t>
+  </si>
+  <si>
+    <t>1,2,12</t>
+  </si>
+  <si>
+    <t>1,1,1,|2,2,2|3,3,3|4,4,13</t>
   </si>
 </sst>
 </file>
@@ -415,12 +629,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -949,7 +1163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,15 +1173,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1011,6 +1225,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1374,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1447,7 +1664,7 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="22"/>
+      <c r="T4" s="23"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:20">
       <c r="A5" s="1"/>
@@ -1475,7 +1692,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="22"/>
+      <c r="T5" s="23"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:20">
       <c r="A6" s="1"/>
@@ -1503,7 +1720,7 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="22"/>
+      <c r="T6" s="23"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:20">
       <c r="A7" s="1"/>
@@ -1531,7 +1748,7 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="22"/>
+      <c r="T7" s="23"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:20">
       <c r="A8" s="1"/>
@@ -1555,7 +1772,7 @@
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="22"/>
+      <c r="T8" s="23"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:20">
       <c r="A9" s="1"/>
@@ -1579,7 +1796,7 @@
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="22"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:20">
       <c r="A10" s="1"/>
@@ -1603,7 +1820,7 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="22"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:20">
       <c r="A11" s="1"/>
@@ -1627,7 +1844,7 @@
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="22"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:20">
       <c r="A12" s="1"/>
@@ -1651,7 +1868,7 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="22"/>
+      <c r="T12" s="23"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:20">
       <c r="A13" s="1"/>
@@ -1675,7 +1892,7 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="22"/>
+      <c r="T13" s="23"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:20">
       <c r="A14" s="1"/>
@@ -1699,7 +1916,7 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="22"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" spans="3:20">
       <c r="C15" s="15">
@@ -1721,7 +1938,7 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="22"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" spans="3:20">
       <c r="C16" s="15">
@@ -1743,7 +1960,7 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="22"/>
+      <c r="T16" s="23"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="15">
@@ -1765,7 +1982,7 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="22"/>
+      <c r="T17" s="23"/>
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="15">
@@ -1787,7 +2004,7 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="22"/>
+      <c r="T18" s="23"/>
     </row>
     <row r="19" spans="3:20">
       <c r="C19" s="15">
@@ -1809,7 +2026,7 @@
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="22"/>
+      <c r="T19" s="23"/>
     </row>
     <row r="20" spans="3:20">
       <c r="C20" s="15">
@@ -1831,7 +2048,7 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="22"/>
+      <c r="T20" s="23"/>
     </row>
     <row r="21" spans="3:20">
       <c r="C21" s="15">
@@ -1853,7 +2070,7 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="22"/>
+      <c r="T21" s="23"/>
     </row>
     <row r="22" spans="3:20">
       <c r="C22" s="15">
@@ -1875,7 +2092,7 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="22"/>
+      <c r="T22" s="23"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="15">
@@ -1897,7 +2114,7 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="22"/>
+      <c r="T23" s="23"/>
     </row>
     <row r="24" spans="3:20">
       <c r="C24" s="15">
@@ -1919,7 +2136,7 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="22"/>
+      <c r="T24" s="23"/>
     </row>
     <row r="25" spans="3:20">
       <c r="C25" s="15">
@@ -1941,7 +2158,7 @@
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="22"/>
+      <c r="T25" s="23"/>
     </row>
     <row r="26" spans="3:20">
       <c r="C26" s="15">
@@ -1963,7 +2180,7 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="22"/>
+      <c r="T26" s="23"/>
     </row>
     <row r="27" spans="3:20">
       <c r="C27" s="15">
@@ -1985,7 +2202,7 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="22"/>
+      <c r="T27" s="23"/>
     </row>
     <row r="28" spans="3:20">
       <c r="C28" s="15">
@@ -2007,7 +2224,7 @@
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="22"/>
+      <c r="T28" s="23"/>
     </row>
     <row r="29" spans="3:20">
       <c r="C29" s="15">
@@ -2029,7 +2246,7 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="22"/>
+      <c r="T29" s="23"/>
     </row>
     <row r="30" spans="3:19">
       <c r="C30" s="15">
@@ -2140,7 +2357,9 @@
       <c r="C35" s="15">
         <v>32</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="E35" s="15"/>
       <c r="F35" s="13"/>
       <c r="G35" s="17"/>
@@ -2173,39 +2392,39 @@
       <c r="R36" s="13"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="3:5">
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="3:5">
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2217,6 +2436,7 @@
     <hyperlink ref="D5" location="Playable!A1" display="Playable"/>
     <hyperlink ref="D6" location="PlayableClip!A1" display="PlayableClip"/>
     <hyperlink ref="D7" location="PlayableLayer!A1" display="PlayableLayer"/>
+    <hyperlink ref="D35" location="Test!A1" display="Test"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2234,7 +2454,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -2248,17 +2468,17 @@
     <row r="2" s="1" customFormat="1"/>
     <row r="3" s="1" customFormat="1" spans="3:3">
       <c r="C3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:3">
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:3">
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2285,71 +2505,71 @@
   <cols>
     <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.08333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.3833333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.08333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.3833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
     <row r="2" s="1" customFormat="1" spans="3:5">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:5">
-      <c r="C3" s="5" t="s">
-        <v>13</v>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:5">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:5">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="3:5">
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="3:5">
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2368,22 +2588,22 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.08333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
+    <col min="3" max="3" width="6.08333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="14.875" style="7"/>
     <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="11.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9" style="3"/>
+    <col min="7" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="11.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2396,144 +2616,141 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:13">
-      <c r="C3" s="5" t="s">
-        <v>13</v>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:13">
-      <c r="C4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:13">
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>10000</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E6" s="7">
         <v>10000</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>10001</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="E7" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2555,82 +2772,82 @@
   <cols>
     <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.08333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="81.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.08333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="81.25" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
     <row r="2" s="1" customFormat="1" spans="3:5">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:5">
-      <c r="C3" s="5" t="s">
-        <v>13</v>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:5">
-      <c r="C4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:5">
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>10000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>52</v>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>10001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>101</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>10002</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>101</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2656,73 +2873,480 @@
   <cols>
     <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.08333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.08333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.08333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.375" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1"/>
     <row r="2" s="1" customFormat="1" spans="3:5">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="3:5">
-      <c r="C3" s="5" t="s">
-        <v>13</v>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="3:5">
-      <c r="C4" s="5" t="s">
-        <v>13</v>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="3:5">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="4">
+        <v>101</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="4">
+        <v>102</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.925" style="2" customWidth="1"/>
+    <col min="2" max="3" width="6.08333333333333" style="2" customWidth="1"/>
+    <col min="4" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="25.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1"/>
+    <row r="2" s="1" customFormat="1"/>
+    <row r="3" s="1" customFormat="1" spans="3:11">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="3:11">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="3">
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="3:11">
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="3">
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="3">
+      <c r="J10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="3">
-        <v>2</v>
+      <c r="K10" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
